--- a/ky/downloads/data-excel/11.6.1.1a.xlsx
+++ b/ky/downloads/data-excel/11.6.1.1a.xlsx
@@ -530,11 +530,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -543,7 +541,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -565,7 +563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -579,8 +577,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,8 +619,11 @@
       <c r="M4" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -661,8 +663,11 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -702,8 +707,11 @@
       <c r="M6" s="11">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="11">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -737,14 +745,17 @@
       <c r="K7" s="12">
         <v>19.3</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <v>11.673077354810609</v>
       </c>
       <c r="M7" s="12">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="12">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -784,8 +795,11 @@
       <c r="M8" s="13">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="13">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -825,8 +839,11 @@
       <c r="M9" s="14">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="14">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
